--- a/Output/Drive/14. Movilidad.xlsx
+++ b/Output/Drive/14. Movilidad.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="1109">
   <si>
-    <t xml:space="preserve">Municipio</t>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Total de Vehiculos de motor 2021</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">Accidentes de Tránsito Registrados</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
+    <t xml:space="preserve">13001</t>
   </si>
   <si>
     <t xml:space="preserve">6534</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">196</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
+    <t xml:space="preserve">13002</t>
   </si>
   <si>
     <t xml:space="preserve">7395</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">115</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
+    <t xml:space="preserve">13003</t>
   </si>
   <si>
     <t xml:space="preserve">17205</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">829</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
+    <t xml:space="preserve">13004</t>
   </si>
   <si>
     <t xml:space="preserve">1973</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">896</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
+    <t xml:space="preserve">13005</t>
   </si>
   <si>
     <t xml:space="preserve">2832</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">111</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
+    <t xml:space="preserve">13006</t>
   </si>
   <si>
     <t xml:space="preserve">3234</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">157</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
+    <t xml:space="preserve">13007</t>
   </si>
   <si>
     <t xml:space="preserve">1615</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">66</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
+    <t xml:space="preserve">13008</t>
   </si>
   <si>
     <t xml:space="preserve">8438</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">385</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
+    <t xml:space="preserve">13010</t>
   </si>
   <si>
     <t xml:space="preserve">7833</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">427</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
+    <t xml:space="preserve">13011</t>
   </si>
   <si>
     <t xml:space="preserve">1136</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">87</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
+    <t xml:space="preserve">13013</t>
   </si>
   <si>
     <t xml:space="preserve">7001</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">597</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
+    <t xml:space="preserve">13012</t>
   </si>
   <si>
     <t xml:space="preserve">8889</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">217</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
+    <t xml:space="preserve">13014</t>
   </si>
   <si>
     <t xml:space="preserve">1159</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">94</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
+    <t xml:space="preserve">13015</t>
   </si>
   <si>
     <t xml:space="preserve">2702</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">53</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
+    <t xml:space="preserve">13017</t>
   </si>
   <si>
     <t xml:space="preserve">1612</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
+    <t xml:space="preserve">13018</t>
   </si>
   <si>
     <t xml:space="preserve">1530</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
+    <t xml:space="preserve">13019</t>
   </si>
   <si>
     <t xml:space="preserve">2449</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">124</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+    <t xml:space="preserve">13016</t>
   </si>
   <si>
     <t xml:space="preserve">13639</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">644</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
+    <t xml:space="preserve">13009</t>
   </si>
   <si>
     <t xml:space="preserve">3827</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">137</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
+    <t xml:space="preserve">13020</t>
   </si>
   <si>
     <t xml:space="preserve">310</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">165</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
+    <t xml:space="preserve">13021</t>
   </si>
   <si>
     <t xml:space="preserve">2690</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">551</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
+    <t xml:space="preserve">13022</t>
   </si>
   <si>
     <t xml:space="preserve">4593</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">428</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
+    <t xml:space="preserve">13023</t>
   </si>
   <si>
     <t xml:space="preserve">7972</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">396</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
+    <t xml:space="preserve">13024</t>
   </si>
   <si>
     <t xml:space="preserve">4816</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">133</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
+    <t xml:space="preserve">13025</t>
   </si>
   <si>
     <t xml:space="preserve">1101</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">33</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
+    <t xml:space="preserve">13026</t>
   </si>
   <si>
     <t xml:space="preserve">410</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">201</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
+    <t xml:space="preserve">13027</t>
   </si>
   <si>
     <t xml:space="preserve">748</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">279</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
+    <t xml:space="preserve">13028</t>
   </si>
   <si>
     <t xml:space="preserve">15705</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">349</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
+    <t xml:space="preserve">13029</t>
   </si>
   <si>
     <t xml:space="preserve">11554</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">582</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
+    <t xml:space="preserve">13030</t>
   </si>
   <si>
     <t xml:space="preserve">19478</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">920</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
+    <t xml:space="preserve">13031</t>
   </si>
   <si>
     <t xml:space="preserve">2635</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">1296</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
+    <t xml:space="preserve">13032</t>
   </si>
   <si>
     <t xml:space="preserve">771</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">300</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
+    <t xml:space="preserve">13033</t>
   </si>
   <si>
     <t xml:space="preserve">159</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">180</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
+    <t xml:space="preserve">13040</t>
   </si>
   <si>
     <t xml:space="preserve">1077</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">633</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
+    <t xml:space="preserve">13034</t>
   </si>
   <si>
     <t xml:space="preserve">880</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">236</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
+    <t xml:space="preserve">13035</t>
   </si>
   <si>
     <t xml:space="preserve">3839</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">57</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
+    <t xml:space="preserve">13037</t>
   </si>
   <si>
     <t xml:space="preserve">3513</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">150</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
+    <t xml:space="preserve">13051</t>
   </si>
   <si>
     <t xml:space="preserve">53683</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">1390</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
+    <t xml:space="preserve">13038</t>
   </si>
   <si>
     <t xml:space="preserve">2141</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">199</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
+    <t xml:space="preserve">13039</t>
   </si>
   <si>
     <t xml:space="preserve">4137</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">261</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
+    <t xml:space="preserve">13041</t>
   </si>
   <si>
     <t xml:space="preserve">8642</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">380</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
+    <t xml:space="preserve">13042</t>
   </si>
   <si>
     <t xml:space="preserve">1704</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">92</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
+    <t xml:space="preserve">13043</t>
   </si>
   <si>
     <t xml:space="preserve">637</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">299</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
+    <t xml:space="preserve">13044</t>
   </si>
   <si>
     <t xml:space="preserve">3035</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">1337</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
+    <t xml:space="preserve">13045</t>
   </si>
   <si>
     <t xml:space="preserve">2448</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">872</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
+    <t xml:space="preserve">13048</t>
   </si>
   <si>
     <t xml:space="preserve">139412</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">13653</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
+    <t xml:space="preserve">13047</t>
   </si>
   <si>
     <t xml:space="preserve">914</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">544</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
+    <t xml:space="preserve">13049</t>
   </si>
   <si>
     <t xml:space="preserve">863</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">494</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
+    <t xml:space="preserve">13050</t>
   </si>
   <si>
     <t xml:space="preserve">6152</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">417</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
+    <t xml:space="preserve">13036</t>
   </si>
   <si>
     <t xml:space="preserve">2430</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">1041</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+    <t xml:space="preserve">13052</t>
   </si>
   <si>
     <t xml:space="preserve">6851</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">353</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
+    <t xml:space="preserve">13053</t>
   </si>
   <si>
     <t xml:space="preserve">986</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">282</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
+    <t xml:space="preserve">13046</t>
   </si>
   <si>
     <t xml:space="preserve">2916</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">234</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
+    <t xml:space="preserve">13054</t>
   </si>
   <si>
     <t xml:space="preserve">6459</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">277</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
+    <t xml:space="preserve">13055</t>
   </si>
   <si>
     <t xml:space="preserve">3371</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">1505</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+    <t xml:space="preserve">13056</t>
   </si>
   <si>
     <t xml:space="preserve">9419</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">478</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
+    <t xml:space="preserve">13057</t>
   </si>
   <si>
     <t xml:space="preserve">4350</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">82</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
+    <t xml:space="preserve">13058</t>
   </si>
   <si>
     <t xml:space="preserve">4466</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">188</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
+    <t xml:space="preserve">13059</t>
   </si>
   <si>
     <t xml:space="preserve">7667</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">245</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
+    <t xml:space="preserve">13060</t>
   </si>
   <si>
     <t xml:space="preserve">1763</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">618</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
+    <t xml:space="preserve">13061</t>
   </si>
   <si>
     <t xml:space="preserve">15777</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">763</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
+    <t xml:space="preserve">13062</t>
   </si>
   <si>
     <t xml:space="preserve">982</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">402</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+    <t xml:space="preserve">13063</t>
   </si>
   <si>
     <t xml:space="preserve">14572</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">1200</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
+    <t xml:space="preserve">13064</t>
   </si>
   <si>
     <t xml:space="preserve">1623</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">584</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
+    <t xml:space="preserve">13065</t>
   </si>
   <si>
     <t xml:space="preserve">2170</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">567</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
+    <t xml:space="preserve">13067</t>
   </si>
   <si>
     <t xml:space="preserve">8687</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">378</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
+    <t xml:space="preserve">13068</t>
   </si>
   <si>
     <t xml:space="preserve">1288</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
+    <t xml:space="preserve">13069</t>
   </si>
   <si>
     <t xml:space="preserve">26849</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">6498</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
+    <t xml:space="preserve">13070</t>
   </si>
   <si>
     <t xml:space="preserve">3637</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">944</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
+    <t xml:space="preserve">13071</t>
   </si>
   <si>
     <t xml:space="preserve">989</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">642</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
+    <t xml:space="preserve">13072</t>
   </si>
   <si>
     <t xml:space="preserve">2949</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">590</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
+    <t xml:space="preserve">13073</t>
   </si>
   <si>
     <t xml:space="preserve">2061</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">140</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
+    <t xml:space="preserve">13074</t>
   </si>
   <si>
     <t xml:space="preserve">5061</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">231</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
+    <t xml:space="preserve">13075</t>
   </si>
   <si>
     <t xml:space="preserve">2846</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">422</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
+    <t xml:space="preserve">13076</t>
   </si>
   <si>
     <t xml:space="preserve">32848</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">627</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
+    <t xml:space="preserve">13077</t>
   </si>
   <si>
     <t xml:space="preserve">56018</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">459</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
+    <t xml:space="preserve">13066</t>
   </si>
   <si>
     <t xml:space="preserve">2470</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">273</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
+    <t xml:space="preserve">13078</t>
   </si>
   <si>
     <t xml:space="preserve">592</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">309</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
+    <t xml:space="preserve">13079</t>
   </si>
   <si>
     <t xml:space="preserve">1078</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">306</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
+    <t xml:space="preserve">13080</t>
   </si>
   <si>
     <t xml:space="preserve">688</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">305</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
+    <t xml:space="preserve">13081</t>
   </si>
   <si>
     <t xml:space="preserve">8814</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">759</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
+    <t xml:space="preserve">13082</t>
   </si>
   <si>
     <t xml:space="preserve">4571</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">301</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
+    <t xml:space="preserve">13083</t>
   </si>
   <si>
     <t xml:space="preserve">12635</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">1387</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimapán</t>
+    <t xml:space="preserve">13084</t>
   </si>
   <si>
     <t xml:space="preserve">11804</t>
